--- a/config/testcases/Report_Set Index Variable.xlsx
+++ b/config/testcases/Report_Set Index Variable.xlsx
@@ -96,7 +96,7 @@
     <t>TS1</t>
   </si>
   <si>
-    <t>Paus</t>
+    <t>Pause</t>
   </si>
   <si>
     <t>pause</t>
@@ -2313,24 +2313,22 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
-        <v>getTextLocatorChild</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabet")</f>
+        <v>getTextAlphabet</v>
       </c>
       <c r="B36" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
-        <v>element,component,key,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C36" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
-        <v>get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      <c r="F36" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return string only alphabet and space")</f>
+        <v>return string only alphabet and space</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
@@ -2355,20 +2353,25 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
-        <v>waitForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
+        <v>getTextLocatorChild</v>
       </c>
       <c r="B37" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
-        <v>element, second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
+        <v>element,component,key,...string split</v>
       </c>
       <c r="C37" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
+      <c r="F37" s="28" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
+        <v>get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      </c>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
@@ -2392,12 +2395,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
-        <v>swipeToDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B38" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
+        <v>element, second</v>
       </c>
       <c r="C38" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2429,16 +2432,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
-        <v>getElements</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
+        <v>swipeToDown</v>
       </c>
       <c r="B39" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C39" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
@@ -2466,16 +2469,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
-        <v>sleep</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
+        <v>getElements</v>
       </c>
       <c r="B40" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
-        <v>second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C40" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
@@ -2503,16 +2506,16 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
-        <v>getSpineState</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
+        <v>sleep</v>
       </c>
       <c r="B41" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
+        <v>second</v>
       </c>
       <c r="C41" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
@@ -2540,22 +2543,19 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
-        <v>getSpineStates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
+        <v>getSpineState</v>
       </c>
       <c r="B42" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
-        <v>element,second,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C42" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D42" s="26"/>
-      <c r="E42" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
-        <v>state1,state2</v>
-      </c>
+      <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
@@ -2580,23 +2580,23 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
-        <v>getAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
+        <v>getSpineStates</v>
       </c>
       <c r="B43" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
+        <v>element,second,count</v>
       </c>
       <c r="C43" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
-        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
-      </c>
+      <c r="E43" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
+        <v>state1,state2</v>
+      </c>
+      <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
@@ -2620,12 +2620,12 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
-        <v>getPointScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
+        <v>getAudioSource</v>
       </c>
       <c r="B44" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
-        <v>element,"x/y"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C44" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -2634,8 +2634,8 @@
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
-        <v>get coordinates of element of X or Y</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
+        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -2660,12 +2660,12 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
-        <v>getSizeScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
+        <v>getPointScreen</v>
       </c>
       <c r="B45" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
-        <v>"w/h"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
+        <v>element,"x/y"</v>
       </c>
       <c r="C45" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -2674,8 +2674,8 @@
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
-        <v>get size of device of  with (w) or height (h)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
+        <v>get coordinates of element of X or Y</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
@@ -2700,12 +2700,12 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
-        <v>isBoolean</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
+        <v>getSizeScreen</v>
       </c>
       <c r="B46" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
-        <v>value1, vaule 2, operator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
+        <v>"w/h"</v>
       </c>
       <c r="C46" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -2714,8 +2714,8 @@
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
-        <v>Hiện tại:[&lt;],[&gt;]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
+        <v>get size of device of  with (w) or height (h)</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -2740,12 +2740,12 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
-        <v>isPointInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
+        <v>isBoolean</v>
       </c>
       <c r="B47" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
+        <v>value1, vaule 2, operator</v>
       </c>
       <c r="C47" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -2753,7 +2753,10 @@
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
+      <c r="F47" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
+        <v>Hiện tại:[&lt;],[&gt;]</v>
+      </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
@@ -2777,12 +2780,12 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
-        <v>isMoveLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
+        <v>isPointInScreen</v>
       </c>
       <c r="B48" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
-        <v>element[,second]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C48" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -2814,12 +2817,12 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
-        <v>isMoveDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
+        <v>isMoveLeft</v>
       </c>
       <c r="B49" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
+        <v>element[,second]</v>
       </c>
       <c r="C49" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -2851,12 +2854,12 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
-        <v>isLocationCompare</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
+        <v>isMoveDown</v>
       </c>
       <c r="B50" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
-        <v>element1,element2,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C50" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -2864,10 +2867,7 @@
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
-      <c r="F50" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
-        <v>coordinate = x/y</v>
-      </c>
+      <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
@@ -2891,20 +2891,23 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
-        <v>move</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
+        <v>isLocationCompare</v>
       </c>
       <c r="B51" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
+        <v>element1,element2,coordinate</v>
       </c>
       <c r="C51" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
+      <c r="F51" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
+        <v>coordinate = x/y</v>
+      </c>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
@@ -2928,16 +2931,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
-        <v>elementNotDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
+        <v>move</v>
       </c>
       <c r="B52" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C52" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
@@ -2965,8 +2968,8 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
+        <v>elementNotDisplay</v>
       </c>
       <c r="B53" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -3006,8 +3009,8 @@
         <v>waitForObjectNotPresent</v>
       </c>
       <c r="B54" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C54" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3039,23 +3042,20 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
-        <v>moveByCoordinates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B55" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
-        <v>element,number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C55" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
-        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
-      </c>
+      <c r="F55" s="26"/>
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
       <c r="I55" s="26"/>
@@ -3079,25 +3079,23 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
-        <v>waitForObjectNotInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
+        <v>moveByCoordinates</v>
       </c>
       <c r="B56" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
-        <v>element,second,size,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
+        <v>element,number</v>
       </c>
       <c r="C56" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D56" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
-coordinate = x/y")</f>
-        <v>size: w/h
-coordinate = x/y</v>
-      </c>
+      <c r="D56" s="26"/>
       <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="F56" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
+        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
+      </c>
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
       <c r="I56" s="26"/>
@@ -3121,18 +3119,23 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
-        <v>waitForObjectContainNotAble</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
+        <v>waitForObjectNotInScreen</v>
       </c>
       <c r="B57" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
+        <v>element,second,size,coordinate</v>
       </c>
       <c r="C57" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D57" s="26"/>
+      <c r="D57" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
+coordinate = x/y")</f>
+        <v>size: w/h
+coordinate = x/y</v>
+      </c>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -3158,21 +3161,18 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
-        <v>isRotation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
+        <v>waitForObjectContainNotAble</v>
       </c>
       <c r="B58" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
-        <v>element,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C58" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D58" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
-        <v>coordinate = x/y/z/w</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D58" s="26"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
@@ -3198,23 +3198,23 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
+        <v>isRotation</v>
       </c>
       <c r="B59" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
-        <v>element,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
+        <v>element,coordinate</v>
       </c>
       <c r="C59" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D59" s="26"/>
+      <c r="D59" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
+        <v>coordinate = x/y/z/w</v>
+      </c>
       <c r="E59" s="26"/>
-      <c r="F59" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
-        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
-      </c>
+      <c r="F59" s="26"/>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
@@ -3242,19 +3242,19 @@
         <v>getListAudioSource</v>
       </c>
       <c r="B60" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
-        <v>element,count,expects</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
+        <v>element,count</v>
       </c>
       <c r="C60" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D60" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
-        <v>expects = [value1;value2;..]</v>
-      </c>
+      <c r="D60" s="26"/>
       <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
+      <c r="F60" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
+        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
+      </c>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
       <c r="I60" s="26"/>
@@ -3278,22 +3278,22 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
-        <v>getImageNameAndColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B61" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
+        <v>element,count,expects</v>
       </c>
       <c r="C61" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
-        <v>image + ","+ color</v>
-      </c>
+      <c r="D61" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
+        <v>expects = [value1;value2;..]</v>
+      </c>
+      <c r="E61" s="26"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
@@ -3318,19 +3318,22 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
-        <v>getTextContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
+        <v>getImageNameAndColor</v>
       </c>
       <c r="B62" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
-        <v>element,component,containt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C62" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="E62" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
+        <v>image + ","+ color</v>
+      </c>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -3355,12 +3358,12 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
+        <v>getTextContain</v>
       </c>
       <c r="B63" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
+        <v>element,component,containt</v>
       </c>
       <c r="C63" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3396,8 +3399,8 @@
         <v>isScale</v>
       </c>
       <c r="B64" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
-        <v>element,component,property,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C64" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3429,21 +3432,18 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
-        <v>swipeRightToLeftEx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B65" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
+        <v>element,component,property,second,expect</v>
       </c>
       <c r="C65" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D65" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
-        <v>bài bao nhiêu</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D65" s="26"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
@@ -3469,27 +3469,23 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
-        <v>getVideoName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
+        <v>swipeRightToLeftEx</v>
       </c>
       <c r="B66" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C66" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D66" s="26"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D66" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
+        <v>bài bao nhiêu</v>
+      </c>
       <c r="E66" s="26"/>
-      <c r="F66" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1</v>
-      </c>
+      <c r="F66" s="26"/>
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
       <c r="I66" s="26"/>
@@ -3513,8 +3509,8 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
+        <v>getVideoName</v>
       </c>
       <c r="B67" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
@@ -3529,12 +3525,10 @@
       <c r="F67" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4")</f>
+3. indexSplit:1")</f>
         <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4</v>
+3. indexSplit:1</v>
       </c>
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
@@ -3563,13 +3557,25 @@
         <v>getVideoUrl</v>
       </c>
       <c r="B68" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
-        <v>element,component,key,expected</v>
-      </c>
-      <c r="C68" s="26"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
+      </c>
+      <c r="C68" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
+      <c r="F68" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4</v>
+      </c>
       <c r="G68" s="26"/>
       <c r="H68" s="26"/>
       <c r="I68" s="26"/>
@@ -3593,17 +3599,14 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B69" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
-      </c>
-      <c r="C69" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
@@ -3630,26 +3633,20 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B70" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C70" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D70" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D70" s="26"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
-      </c>
+      <c r="F70" s="26"/>
       <c r="G70" s="26"/>
       <c r="H70" s="26"/>
       <c r="I70" s="26"/>
@@ -3673,22 +3670,25 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B71" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C71" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D71" s="26"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D71" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E71" s="26"/>
       <c r="F71" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G71" s="26"/>
       <c r="H71" s="26"/>
@@ -3713,12 +3713,12 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
-        <v>returnPathReplaceVariable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B72" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
-        <v>string, replaceStr</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C72" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3726,7 +3726,10 @@
       </c>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
+      <c r="F72" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G72" s="26"/>
       <c r="H72" s="26"/>
       <c r="I72" s="26"/>
@@ -3750,12 +3753,12 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
-        <v>returnPathFullName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B73" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C73" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3787,8 +3790,8 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
-        <v>returnPathFullPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B74" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -3824,12 +3827,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B75" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C75" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3837,10 +3840,7 @@
       </c>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F75" s="26"/>
       <c r="G75" s="26"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
@@ -3864,8 +3864,8 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B76" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -3878,8 +3878,8 @@
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G76" s="26"/>
       <c r="H76" s="26"/>
@@ -3904,20 +3904,23 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B77" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C77" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
+      <c r="F77" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G77" s="26"/>
       <c r="H77" s="26"/>
       <c r="I77" s="26"/>
@@ -3941,16 +3944,16 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B78" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C78" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
@@ -3978,12 +3981,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B79" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C79" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4015,12 +4018,12 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B80" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C80" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4056,8 +4059,8 @@
         <v>returnChooseTopic</v>
       </c>
       <c r="B81" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C81" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4089,12 +4092,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B82" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C82" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4126,12 +4129,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B83" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C83" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4163,12 +4166,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B84" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C84" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4200,12 +4203,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B85" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C85" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4237,12 +4240,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B86" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C86" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4250,10 +4253,7 @@
       </c>
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
-      <c r="F86" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F86" s="26"/>
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
@@ -4277,12 +4277,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
-        <v>setVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B87" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
-        <v>key(exist),value</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C87" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4290,7 +4290,10 @@
       </c>
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
+      <c r="F87" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
+      </c>
       <c r="G87" s="26"/>
       <c r="H87" s="26"/>
       <c r="I87" s="26"/>
@@ -4314,12 +4317,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B88" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C88" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4351,12 +4354,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B89" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
       </c>
       <c r="C89" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4388,12 +4391,12 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addVariableFile")</f>
+        <v>addVariableFile</v>
       </c>
       <c r="B90" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,add")</f>
+        <v>key,add</v>
       </c>
       <c r="C90" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4401,10 +4404,7 @@
       </c>
       <c r="D90" s="26"/>
       <c r="E90" s="26"/>
-      <c r="F90" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
-      </c>
+      <c r="F90" s="26"/>
       <c r="G90" s="26"/>
       <c r="H90" s="26"/>
       <c r="I90" s="26"/>
@@ -4428,12 +4428,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B91" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C91" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4441,10 +4441,7 @@
       </c>
       <c r="D91" s="26"/>
       <c r="E91" s="26"/>
-      <c r="F91" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
-      </c>
+      <c r="F91" s="26"/>
       <c r="G91" s="26"/>
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
@@ -4468,12 +4465,12 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B92" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C92" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4482,8 +4479,8 @@
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
       <c r="F92" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
       </c>
       <c r="G92" s="26"/>
       <c r="H92" s="26"/>
@@ -4508,12 +4505,12 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B93" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C93" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4521,7 +4518,10 @@
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
+      <c r="F93" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
+      </c>
       <c r="G93" s="26"/>
       <c r="H93" s="26"/>
       <c r="I93" s="26"/>
@@ -4545,12 +4545,12 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B94" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C94" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4558,7 +4558,10 @@
       </c>
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
+      <c r="F94" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
       <c r="I94" s="26"/>
@@ -4582,20 +4585,20 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B95" s="26"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
+      </c>
+      <c r="B95" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
+      </c>
       <c r="C95" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D95" s="26"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F95" s="26"/>
       <c r="G95" s="26"/>
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
@@ -4619,20 +4622,20 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
-      </c>
-      <c r="B96" s="26"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B96" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
       <c r="C96" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D96" s="26"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
-      </c>
+      <c r="F96" s="26"/>
       <c r="G96" s="26"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
@@ -4656,20 +4659,20 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
-      </c>
-      <c r="B97" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
+      </c>
+      <c r="B97" s="26"/>
       <c r="C97" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
+      <c r="F97" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
+      </c>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
@@ -4693,20 +4696,20 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
-      </c>
-      <c r="B98" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B98" s="26"/>
       <c r="C98" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
+      <c r="F98" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
@@ -4730,12 +4733,12 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B99" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C99" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4767,23 +4770,20 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B100" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C100" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D100" s="26"/>
       <c r="E100" s="26"/>
-      <c r="F100" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F100" s="26"/>
       <c r="G100" s="26"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
@@ -4807,16 +4807,16 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
       </c>
       <c r="B101" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
       </c>
       <c r="C101" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
@@ -4844,20 +4844,23 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
       </c>
       <c r="B102" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
+        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
       </c>
       <c r="C102" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
+      <c r="F102" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G102" s="26"/>
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
@@ -4881,12 +4884,12 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
-        <v>swipeMap</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
       </c>
       <c r="B103" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
-        <v>locator,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
       </c>
       <c r="C103" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4894,10 +4897,7 @@
       </c>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="26" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
-        <v>key file data to get list leson</v>
-      </c>
+      <c r="F103" s="26"/>
       <c r="G103" s="26"/>
       <c r="H103" s="26"/>
       <c r="I103" s="26"/>
@@ -4920,9 +4920,18 @@
       <c r="Z103" s="26"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
+      <c r="A104" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
+      </c>
+      <c r="B104" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
+      </c>
+      <c r="C104" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
       <c r="F104" s="26"/>
@@ -4948,12 +4957,24 @@
       <c r="Z104" s="26"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
+      <c r="A105" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B105" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
+        <v>element,component,property,key,expect</v>
+      </c>
+      <c r="C105" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
+      <c r="F105" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G105" s="26"/>
       <c r="H105" s="26"/>
       <c r="I105" s="26"/>
@@ -4976,12 +4997,24 @@
       <c r="Z105" s="26"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
+      <c r="A106" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
+        <v>comPairImage</v>
+      </c>
+      <c r="B106" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C106" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
+      <c r="F106" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+      </c>
       <c r="G106" s="26"/>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
@@ -5004,12 +5037,24 @@
       <c r="Z106" s="26"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
+      <c r="A107" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairWordHasImage")</f>
+        <v>comPairWordHasImage</v>
+      </c>
+      <c r="B107" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C107" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D107" s="26"/>
       <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
+      <c r="F107" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+      </c>
       <c r="G107" s="26"/>
       <c r="H107" s="26"/>
       <c r="I107" s="26"/>
@@ -5032,12 +5077,24 @@
       <c r="Z107" s="26"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
+      <c r="A108" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
+        <v>skipLesson</v>
+      </c>
+      <c r="B108" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
+      </c>
+      <c r="C108" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D108" s="26"/>
       <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
+      <c r="F108" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
+        <v>sử dụng với những nút có thể onclick()</v>
+      </c>
       <c r="G108" s="26"/>
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
